--- a/ope.ed.gov/2012/hate-crimes-on-campus-virginia-colleges-and-universities-crime-2012.xlsx
+++ b/ope.ed.gov/2012/hate-crimes-on-campus-virginia-colleges-and-universities-crime-2012.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Hate Crimes - On campus</t>
+    <t>Survey Year</t>
   </si>
   <si>
-    <t>Survey year</t>
+    <t>UnitID</t>
   </si>
   <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,88 +31,88 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Race</t>
+    <t>Murder/Non-Negligent Manslaughter - Race</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Religion</t>
+    <t>Murder/Non-Negligent Manslaughter - Religion</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Sexual orientation</t>
+    <t>Murder/Non-Negligent Manslaughter - Sexual Orientation</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Gender</t>
+    <t>Murder/Non-Negligent Manslaughter - Gender</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Disability</t>
+    <t>Murder/Non-Negligent Manslaughter - Disability</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter - Ethnicity/National origin</t>
+    <t>Murder/Non-Negligent Manslaughter - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Negligent manslaughter</t>
+    <t>Negligent Manslaughter</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Race</t>
+    <t>Negligent Manslaughter - Race</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Religion</t>
+    <t>Negligent Manslaughter - Religion</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Sexual orientation</t>
+    <t>Negligent Manslaughter - Sexual Orientation</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Gender</t>
+    <t>Negligent Manslaughter - Gender</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Disability</t>
+    <t>Negligent Manslaughter - Disability</t>
   </si>
   <si>
-    <t>Negligent manslaughter - Ethnicity/National origin</t>
+    <t>Negligent Manslaughter - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible</t>
+    <t>Sex Offenses - Forcible</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Race</t>
+    <t>Sex Offenses - Forcible - Race</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Religion</t>
+    <t>Sex Offenses - Forcible - Religion</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Sexual orientation</t>
+    <t>Sex Offenses - Forcible - Sexual Orientation</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Gender</t>
+    <t>Sex Offenses - Forcible - Gender</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Disability</t>
+    <t>Sex Offenses - Forcible - Disability</t>
   </si>
   <si>
-    <t>Sex offenses - Forcible - Ethnicity/National origin</t>
+    <t>Sex Offenses - Forcible - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible -Race</t>
+    <t>Sex Offenses - Non-Forcible -Race</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible - Religion</t>
+    <t>Sex Offenses - Non-Forcible - Religion</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible - Sexual orientation</t>
+    <t>Sex Offenses - Non-Forcible - Sexual Orientation</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible - Gender</t>
+    <t>Sex Offenses - Non-Forcible - Gender</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible - Disability</t>
+    <t>Sex Offenses - Non-Forcible - Disability</t>
   </si>
   <si>
-    <t>Sex offenses - Non-forcible - Ethnicity/National origin</t>
+    <t>Sex Offenses - Non-Forcible - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Robbery</t>
@@ -127,7 +124,7 @@
     <t>Robbery - Religion</t>
   </si>
   <si>
-    <t>Robbery - Sexual orientation</t>
+    <t>Robbery - Sexual Orientation</t>
   </si>
   <si>
     <t>Robbery - Gender</t>
@@ -136,28 +133,28 @@
     <t>Robbery - Disability</t>
   </si>
   <si>
-    <t>Robbery - Ethnicity/National origin</t>
+    <t>Robbery - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
-    <t>Aggravated assault - Race</t>
+    <t>Aggravated Assault - Race</t>
   </si>
   <si>
-    <t>Aggravated assault - Religion</t>
+    <t>Aggravated Assault - Religion</t>
   </si>
   <si>
-    <t>Aggravated assault - Sexual orientation</t>
+    <t>Aggravated Assault - Sexual Orientation</t>
   </si>
   <si>
-    <t>Aggravated assault - Gender</t>
+    <t>Aggravated Assault - Gender</t>
   </si>
   <si>
-    <t>Aggravated assault - Disability</t>
+    <t>Aggravated Assault - Disability</t>
   </si>
   <si>
-    <t>Aggravated assault - Ethnicity/National origin</t>
+    <t>Aggravated Assault - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Burglary</t>
@@ -169,7 +166,7 @@
     <t>Burglary - Religion</t>
   </si>
   <si>
-    <t>Burglary - Sexual orientation</t>
+    <t>Burglary - Sexual Orientation</t>
   </si>
   <si>
     <t>Burglary - Gender</t>
@@ -178,28 +175,28 @@
     <t>Burglary - Disability</t>
   </si>
   <si>
-    <t>Burglary - Ethnicity/National origin</t>
+    <t>Burglary - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Race</t>
+    <t>Motor Vehicle Theft - Race</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Religion</t>
+    <t>Motor Vehicle Theft - Religion</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Sexual orientation</t>
+    <t>Motor Vehicle Theft - Sexual Orientation</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Gender</t>
+    <t>Motor Vehicle Theft - Gender</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Disability</t>
+    <t>Motor Vehicle Theft - Disability</t>
   </si>
   <si>
-    <t>Motor vehicle theft - Ethnicity/National origin</t>
+    <t>Motor Vehicle Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Arson</t>
@@ -211,7 +208,7 @@
     <t>Arson - Religion</t>
   </si>
   <si>
-    <t>Arson - Sexual orientation</t>
+    <t>Arson - Sexual Orientation</t>
   </si>
   <si>
     <t>Arson - Gender</t>
@@ -220,49 +217,49 @@
     <t>Arson - Disability</t>
   </si>
   <si>
-    <t>Arson - Ethnicity/National origin</t>
+    <t>Arson - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Simple assault</t>
+    <t>Simple Assault</t>
   </si>
   <si>
-    <t>Simple assault - Race</t>
+    <t>Simple Assault - Race</t>
   </si>
   <si>
-    <t>Simple assault - Religion</t>
+    <t>Simple Assault - Religion</t>
   </si>
   <si>
-    <t>Simple assault - Sexual orientation</t>
+    <t>Simple Assault - Sexual Orientation</t>
   </si>
   <si>
-    <t>Simple assault - Gender</t>
+    <t>Simple Assault - Gender</t>
   </si>
   <si>
-    <t>Simple assault - Disability</t>
+    <t>Simple Assault - Disability</t>
   </si>
   <si>
-    <t>Simple assault - Ethnicity/National origin</t>
+    <t>Simple Assault - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Larceny-theft</t>
+    <t>Larceny-Theft</t>
   </si>
   <si>
-    <t>Larceny-theft - Race</t>
+    <t>Larceny-Theft - Race</t>
   </si>
   <si>
-    <t>Larceny-theft - Religion</t>
+    <t>Larceny-Theft - Religion</t>
   </si>
   <si>
-    <t>Larceny-theft - Sexual orientation</t>
+    <t>Larceny-Theft - Sexual Orientation</t>
   </si>
   <si>
-    <t>Larceny-theft - Gender</t>
+    <t>Larceny-Theft - Gender</t>
   </si>
   <si>
-    <t>Larceny-theft - Disability</t>
+    <t>Larceny-Theft - Disability</t>
   </si>
   <si>
-    <t>Larceny-theft - Ethnicity/National origin</t>
+    <t>Larceny-Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Intimidation</t>
@@ -274,7 +271,7 @@
     <t>Intimidation - Religion</t>
   </si>
   <si>
-    <t>Intimidation - Sexual orientation</t>
+    <t>Intimidation - Sexual Orientation</t>
   </si>
   <si>
     <t>Intimidation - Gender</t>
@@ -283,28 +280,28 @@
     <t>Intimidation - Disability</t>
   </si>
   <si>
-    <t>Intimidation - Ethnicity/National origin</t>
+    <t>Intimidation - Ethnicity/National Origin</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property</t>
+    <t>Destruction/Damage/Vandalism of Property</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Race</t>
+    <t>Destruction/Damage/Vandalism of Property - Race</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Religion</t>
+    <t>Destruction/Damage/Vandalism of Property - Religion</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Sexual orientation</t>
+    <t>Destruction/Damage/Vandalism of Property - Sexual Orientation</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Gender</t>
+    <t>Destruction/Damage/Vandalism of Property - Gender</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Disability</t>
+    <t>Destruction/Damage/Vandalism of Property - Disability</t>
   </si>
   <si>
-    <t>Destruction/damage/ vandalism of property - Ethnicity/National origin</t>
+    <t>Destruction/Damage/Vandalism of Property - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Advanced Technology Institute</t>
@@ -2041,298 +2038,568 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
+      <c t="s" s="1" r="P1">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="Q1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="R1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="S1">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="T1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="U1">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="V1">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="W1">
+        <v>22</v>
+      </c>
+      <c t="s" s="1" r="X1">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="Y1">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="Z1">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="AA1">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="AB1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="AC1">
+        <v>28</v>
+      </c>
+      <c t="s" s="1" r="AD1">
+        <v>29</v>
+      </c>
+      <c t="s" s="1" r="AE1">
+        <v>30</v>
+      </c>
+      <c t="s" s="1" r="AF1">
+        <v>31</v>
+      </c>
+      <c t="s" s="1" r="AG1">
+        <v>32</v>
+      </c>
+      <c t="s" s="1" r="AH1">
+        <v>33</v>
+      </c>
+      <c t="s" s="1" r="AI1">
+        <v>34</v>
+      </c>
+      <c t="s" s="1" r="AJ1">
+        <v>35</v>
+      </c>
+      <c t="s" s="1" r="AK1">
+        <v>36</v>
+      </c>
+      <c t="s" s="1" r="AL1">
+        <v>37</v>
+      </c>
+      <c t="s" s="1" r="AM1">
+        <v>38</v>
+      </c>
+      <c t="s" s="1" r="AN1">
+        <v>39</v>
+      </c>
+      <c t="s" s="1" r="AO1">
+        <v>40</v>
+      </c>
+      <c t="s" s="1" r="AP1">
+        <v>41</v>
+      </c>
+      <c t="s" s="1" r="AQ1">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="AR1">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="AS1">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="AT1">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="AU1">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="AV1">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="AW1">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="AX1">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="AY1">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="AZ1">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="BA1">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="BB1">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="BC1">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="BD1">
+        <v>55</v>
+      </c>
+      <c t="s" s="1" r="BE1">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="BF1">
+        <v>57</v>
+      </c>
+      <c t="s" s="1" r="BG1">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="BH1">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="BI1">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="BJ1">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="BK1">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="BL1">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="BM1">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="BN1">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="BO1">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="BP1">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="BQ1">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="BR1">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="BS1">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="BT1">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="BU1">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="BV1">
+        <v>73</v>
+      </c>
+      <c t="s" s="1" r="BW1">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="BX1">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="BY1">
+        <v>76</v>
+      </c>
+      <c t="s" s="1" r="BZ1">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="CA1">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="CB1">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="CC1">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="CD1">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="CE1">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="CF1">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="CG1">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="CH1">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="CI1">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="CJ1">
+        <v>87</v>
+      </c>
+      <c t="s" s="1" r="CK1">
+        <v>88</v>
+      </c>
+      <c t="s" s="1" r="CL1">
+        <v>89</v>
+      </c>
+      <c t="s" s="1" r="CM1">
+        <v>90</v>
+      </c>
+      <c t="s" s="1" r="CN1">
+        <v>91</v>
+      </c>
+      <c t="s" s="1" r="CO1">
+        <v>92</v>
+      </c>
+      <c t="s" s="1" r="CP1">
+        <v>93</v>
+      </c>
+      <c t="s" s="1" r="CQ1">
+        <v>94</v>
+      </c>
+      <c t="s" s="1" r="CR1">
+        <v>95</v>
+      </c>
+      <c t="s" s="1" r="CS1">
+        <v>96</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2012.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
-      </c>
-      <c t="s" s="1" r="P2">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="Q2">
-        <v>17</v>
-      </c>
-      <c t="s" s="1" r="R2">
-        <v>18</v>
-      </c>
-      <c t="s" s="1" r="S2">
-        <v>19</v>
-      </c>
-      <c t="s" s="1" r="T2">
-        <v>20</v>
-      </c>
-      <c t="s" s="1" r="U2">
-        <v>21</v>
-      </c>
-      <c t="s" s="1" r="V2">
-        <v>22</v>
-      </c>
-      <c t="s" s="1" r="W2">
-        <v>23</v>
-      </c>
-      <c t="s" s="1" r="X2">
-        <v>24</v>
-      </c>
-      <c t="s" s="1" r="Y2">
-        <v>25</v>
-      </c>
-      <c t="s" s="1" r="Z2">
-        <v>26</v>
-      </c>
-      <c t="s" s="1" r="AA2">
-        <v>27</v>
-      </c>
-      <c t="s" s="1" r="AB2">
-        <v>28</v>
-      </c>
-      <c t="s" s="1" r="AC2">
-        <v>29</v>
-      </c>
-      <c t="s" s="1" r="AD2">
-        <v>30</v>
-      </c>
-      <c t="s" s="1" r="AE2">
-        <v>31</v>
-      </c>
-      <c t="s" s="1" r="AF2">
-        <v>32</v>
-      </c>
-      <c t="s" s="1" r="AG2">
-        <v>33</v>
-      </c>
-      <c t="s" s="1" r="AH2">
-        <v>34</v>
-      </c>
-      <c t="s" s="1" r="AI2">
-        <v>35</v>
-      </c>
-      <c t="s" s="1" r="AJ2">
-        <v>36</v>
-      </c>
-      <c t="s" s="1" r="AK2">
-        <v>37</v>
-      </c>
-      <c t="s" s="1" r="AL2">
-        <v>38</v>
-      </c>
-      <c t="s" s="1" r="AM2">
-        <v>39</v>
-      </c>
-      <c t="s" s="1" r="AN2">
-        <v>40</v>
-      </c>
-      <c t="s" s="1" r="AO2">
-        <v>41</v>
-      </c>
-      <c t="s" s="1" r="AP2">
-        <v>42</v>
-      </c>
-      <c t="s" s="1" r="AQ2">
-        <v>43</v>
-      </c>
-      <c t="s" s="1" r="AR2">
-        <v>44</v>
-      </c>
-      <c t="s" s="1" r="AS2">
-        <v>45</v>
-      </c>
-      <c t="s" s="1" r="AT2">
-        <v>46</v>
-      </c>
-      <c t="s" s="1" r="AU2">
-        <v>47</v>
-      </c>
-      <c t="s" s="1" r="AV2">
-        <v>48</v>
-      </c>
-      <c t="s" s="1" r="AW2">
-        <v>49</v>
-      </c>
-      <c t="s" s="1" r="AX2">
-        <v>50</v>
-      </c>
-      <c t="s" s="1" r="AY2">
-        <v>51</v>
-      </c>
-      <c t="s" s="1" r="AZ2">
-        <v>52</v>
-      </c>
-      <c t="s" s="1" r="BA2">
-        <v>53</v>
-      </c>
-      <c t="s" s="1" r="BB2">
-        <v>54</v>
-      </c>
-      <c t="s" s="1" r="BC2">
-        <v>55</v>
-      </c>
-      <c t="s" s="1" r="BD2">
-        <v>56</v>
-      </c>
-      <c t="s" s="1" r="BE2">
-        <v>57</v>
-      </c>
-      <c t="s" s="1" r="BF2">
-        <v>58</v>
-      </c>
-      <c t="s" s="1" r="BG2">
-        <v>59</v>
-      </c>
-      <c t="s" s="1" r="BH2">
-        <v>60</v>
-      </c>
-      <c t="s" s="1" r="BI2">
-        <v>61</v>
-      </c>
-      <c t="s" s="1" r="BJ2">
-        <v>62</v>
-      </c>
-      <c t="s" s="1" r="BK2">
-        <v>63</v>
-      </c>
-      <c t="s" s="1" r="BL2">
-        <v>64</v>
-      </c>
-      <c t="s" s="1" r="BM2">
-        <v>65</v>
-      </c>
-      <c t="s" s="1" r="BN2">
-        <v>66</v>
-      </c>
-      <c t="s" s="1" r="BO2">
-        <v>67</v>
-      </c>
-      <c t="s" s="1" r="BP2">
-        <v>68</v>
-      </c>
-      <c t="s" s="1" r="BQ2">
-        <v>69</v>
-      </c>
-      <c t="s" s="1" r="BR2">
-        <v>70</v>
-      </c>
-      <c t="s" s="1" r="BS2">
-        <v>71</v>
-      </c>
-      <c t="s" s="1" r="BT2">
-        <v>72</v>
-      </c>
-      <c t="s" s="1" r="BU2">
-        <v>73</v>
-      </c>
-      <c t="s" s="1" r="BV2">
-        <v>74</v>
-      </c>
-      <c t="s" s="1" r="BW2">
-        <v>75</v>
-      </c>
-      <c t="s" s="1" r="BX2">
-        <v>76</v>
-      </c>
-      <c t="s" s="1" r="BY2">
-        <v>77</v>
-      </c>
-      <c t="s" s="1" r="BZ2">
-        <v>78</v>
-      </c>
-      <c t="s" s="1" r="CA2">
-        <v>79</v>
-      </c>
-      <c t="s" s="1" r="CB2">
-        <v>80</v>
-      </c>
-      <c t="s" s="1" r="CC2">
-        <v>81</v>
-      </c>
-      <c t="s" s="1" r="CD2">
-        <v>82</v>
-      </c>
-      <c t="s" s="1" r="CE2">
-        <v>83</v>
-      </c>
-      <c t="s" s="1" r="CF2">
-        <v>84</v>
-      </c>
-      <c t="s" s="1" r="CG2">
-        <v>85</v>
-      </c>
-      <c t="s" s="1" r="CH2">
-        <v>86</v>
-      </c>
-      <c t="s" s="1" r="CI2">
-        <v>87</v>
-      </c>
-      <c t="s" s="1" r="CJ2">
-        <v>88</v>
-      </c>
-      <c t="s" s="1" r="CK2">
-        <v>89</v>
-      </c>
-      <c t="s" s="1" r="CL2">
-        <v>90</v>
-      </c>
-      <c t="s" s="1" r="CM2">
-        <v>91</v>
-      </c>
-      <c t="s" s="1" r="CN2">
-        <v>92</v>
-      </c>
-      <c t="s" s="1" r="CO2">
-        <v>93</v>
-      </c>
-      <c t="s" s="1" r="CP2">
-        <v>94</v>
-      </c>
-      <c t="s" s="1" r="CQ2">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="CR2">
-        <v>96</v>
-      </c>
-      <c t="s" s="1" r="CS2">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c s="1" r="F2">
+        <v>787.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="U2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="V2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="W2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="X2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Y2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Z2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AS2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AT2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AU2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AV2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AX2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AY2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AZ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BS2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BT2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BU2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BV2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BX2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BY2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BZ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CS2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -2343,13 +2610,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F3">
         <v>787.0</v>
@@ -2618,13 +2885,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F4">
         <v>787.0</v>
@@ -2648,9 +2915,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M4">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N4">
         <v>0.0</v>
       </c>
       <c s="1" r="U4">
@@ -2890,19 +3154,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F5">
-        <v>787.0</v>
+        <v>2130.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -2923,6 +3187,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M5">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N5">
         <v>0.0</v>
       </c>
       <c s="1" r="U5">
@@ -3165,13 +3432,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F6">
         <v>2130.0</v>
@@ -3440,13 +3707,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F7">
         <v>2130.0</v>
@@ -3715,13 +3982,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D8">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F8">
         <v>2130.0</v>
@@ -3990,13 +4257,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D9">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F9">
         <v>2130.0</v>
@@ -4265,13 +4532,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F10">
         <v>2130.0</v>
@@ -4540,13 +4807,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D11">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F11">
         <v>2130.0</v>
@@ -4815,13 +5082,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D12">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F12">
         <v>2130.0</v>
@@ -5090,13 +5357,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D13">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F13">
         <v>2130.0</v>
@@ -5365,13 +5632,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D14">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F14">
         <v>2130.0</v>
@@ -5395,9 +5662,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M14">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N14">
         <v>0.0</v>
       </c>
       <c s="1" r="U14">
@@ -5637,19 +5901,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232797.0</v>
+        <v>449922.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D15">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F15">
-        <v>2130.0</v>
+        <v>223.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -5909,19 +6173,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B16">
-        <v>449922.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F16">
-        <v>223.0</v>
+        <v>263.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -5942,6 +6206,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M16">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N16">
         <v>0.0</v>
       </c>
       <c s="1" r="U16">
@@ -6181,19 +6448,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B17">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F17">
-        <v>263.0</v>
+        <v>1018.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -6456,19 +6723,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B18">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F18">
-        <v>1018.0</v>
+        <v>914.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -6731,19 +6998,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B19">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F19">
-        <v>914.0</v>
+        <v>1403.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -7009,13 +7276,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F20">
         <v>1403.0</v>
@@ -7284,13 +7551,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D21">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F21">
         <v>1403.0</v>
@@ -7559,13 +7826,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D22">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F22">
         <v>1403.0</v>
@@ -7831,19 +8098,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B23">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D23">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F23">
-        <v>1403.0</v>
+        <v>36.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -8106,19 +8373,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B24">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F24">
-        <v>36.0</v>
+        <v>326.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -8381,19 +8648,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B25">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F25">
-        <v>326.0</v>
+        <v>207.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -8656,19 +8923,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B26">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F26">
-        <v>207.0</v>
+        <v>98.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -8931,19 +9198,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B27">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F27">
-        <v>98.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -9206,19 +9473,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231280.0</v>
+        <v>458113.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F28">
-        <v>84.0</v>
+        <v>49.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -9239,9 +9506,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M28">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N28">
         <v>0.0</v>
       </c>
       <c s="1" r="U28">
@@ -9481,19 +9745,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B29">
-        <v>458113.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F29">
-        <v>49.0</v>
+        <v>4694.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -9514,6 +9778,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M29">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N29">
         <v>0.0</v>
       </c>
       <c s="1" r="U29">
@@ -9753,19 +10020,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F30">
-        <v>4694.0</v>
+        <v>831.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -10028,19 +10295,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F31">
-        <v>831.0</v>
+        <v>290.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -10303,19 +10570,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B32">
-        <v>233356.0</v>
+        <v>233480.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F32">
-        <v>290.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -10578,19 +10845,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233480.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F33">
-        <v>35.0</v>
+        <v>1759.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -10853,19 +11120,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B34">
-        <v>231581.0</v>
+        <v>459107.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F34">
-        <v>1759.0</v>
+        <v>567.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -10886,9 +11153,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M34">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N34">
         <v>0.0</v>
       </c>
       <c s="1" r="U34">
@@ -11128,19 +11392,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B35">
-        <v>459107.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F35">
-        <v>567.0</v>
+        <v>942.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -11163,6 +11427,9 @@
       <c s="1" r="M35">
         <v>0.0</v>
       </c>
+      <c s="1" r="N35">
+        <v>0.0</v>
+      </c>
       <c s="1" r="U35">
         <v>0.0</v>
       </c>
@@ -11374,7 +11641,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM35">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CN35">
         <v>0.0</v>
@@ -11392,7 +11659,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CS35">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -11400,19 +11667,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B36">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F36">
-        <v>942.0</v>
+        <v>755.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -11649,7 +11916,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM36">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN36">
         <v>0.0</v>
@@ -11667,7 +11934,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CS36">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -11675,19 +11942,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B37">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F37">
-        <v>755.0</v>
+        <v>175.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -11950,19 +12217,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B38">
-        <v>441858.0</v>
+        <v>430306.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F38">
-        <v>175.0</v>
+        <v>50.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -11983,9 +12250,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M38">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N38">
         <v>0.0</v>
       </c>
       <c s="1" r="U38">
@@ -12225,19 +12489,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B39">
-        <v>430306.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F39">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -12258,6 +12522,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M39">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N39">
         <v>0.0</v>
       </c>
       <c s="1" r="U39">
@@ -12497,19 +12764,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B40">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F40">
-        <v>48.0</v>
+        <v>4906.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -12775,13 +13042,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D41">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F41">
         <v>4906.0</v>
@@ -13050,13 +13317,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D42">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F42">
         <v>4906.0</v>
@@ -13325,13 +13592,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D43">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F43">
         <v>4906.0</v>
@@ -13600,13 +13867,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D44">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F44">
         <v>4906.0</v>
@@ -13630,9 +13897,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M44">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N44">
         <v>0.0</v>
       </c>
       <c s="1" r="U44">
@@ -13872,19 +14136,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B45">
-        <v>231697.0</v>
+        <v>451592.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D45">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F45">
-        <v>4906.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -14144,19 +14408,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B46">
-        <v>451592.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F46">
-        <v>10.0</v>
+        <v>289.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -14177,6 +14441,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M46">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N46">
         <v>0.0</v>
       </c>
       <c s="1" r="U46">
@@ -14416,19 +14683,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B47">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F47">
-        <v>289.0</v>
+        <v>344.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -14691,19 +14958,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B48">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F48">
-        <v>344.0</v>
+        <v>411.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -14966,19 +15233,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B49">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F49">
-        <v>411.0</v>
+        <v>300.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -15241,19 +15508,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B50">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F50">
-        <v>300.0</v>
+        <v>156.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -15274,9 +15541,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M50">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N50">
         <v>0.0</v>
       </c>
       <c s="1" r="U50">
@@ -15516,19 +15780,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B51">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F51">
-        <v>156.0</v>
+        <v>1484.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -15549,6 +15813,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M51">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N51">
         <v>0.0</v>
       </c>
       <c s="1" r="U51">
@@ -15788,19 +16055,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F52">
-        <v>1484.0</v>
+        <v>176.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -16063,19 +16330,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B53">
-        <v>427894.0</v>
+        <v>460871.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F53">
-        <v>176.0</v>
+        <v>348.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -16096,9 +16363,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M53">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N53">
         <v>0.0</v>
       </c>
       <c s="1" r="U53">
@@ -16338,19 +16602,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B54">
-        <v>460871.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F54">
-        <v>348.0</v>
+        <v>5186.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -16371,6 +16635,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M54">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N54">
         <v>0.0</v>
       </c>
       <c s="1" r="U54">
@@ -16610,19 +16877,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B55">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F55">
-        <v>5186.0</v>
+        <v>8258.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -16888,13 +17155,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D56">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F56">
         <v>8258.0</v>
@@ -16918,9 +17185,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N56">
         <v>0.0</v>
       </c>
       <c s="1" r="U56">
@@ -17163,13 +17427,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D57">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F57">
         <v>8258.0</v>
@@ -17435,13 +17699,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D58">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F58">
         <v>8258.0</v>
@@ -17704,19 +17968,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B59">
-        <v>231624.0</v>
+        <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D59">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F59">
-        <v>8258.0</v>
+        <v>299.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -17979,13 +18243,13 @@
         <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D60">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F60">
         <v>299.0</v>
@@ -18248,19 +18512,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B61">
-        <v>455983.0</v>
+        <v>461449.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D61">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F61">
-        <v>299.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -18520,19 +18784,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B62">
-        <v>461449.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F62">
-        <v>101.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -18553,6 +18817,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M62">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N62">
         <v>0.0</v>
       </c>
       <c s="1" r="U62">
@@ -18792,19 +19059,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B63">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F63">
-        <v>14.0</v>
+        <v>1463.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -19067,19 +19334,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B64">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F64">
-        <v>1463.0</v>
+        <v>4420.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -19342,19 +19609,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B65">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F65">
-        <v>4420.0</v>
+        <v>54.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -19617,19 +19884,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B66">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D66">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F66">
-        <v>54.0</v>
+        <v>1012.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -19650,9 +19917,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M66">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N66">
         <v>0.0</v>
       </c>
       <c s="1" r="U66">
@@ -19895,13 +20159,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D67">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F67">
         <v>1012.0</v>
@@ -20167,13 +20431,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D68">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F68">
         <v>1012.0</v>
@@ -20436,19 +20700,16 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B69">
-        <v>440536.0</v>
+        <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D69">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>231</v>
-      </c>
-      <c s="1" r="F69">
-        <v>1012.0</v>
+        <v>232</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -20711,13 +20972,13 @@
         <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D70">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -20980,13 +21241,13 @@
         <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D71">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -21246,16 +21507,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B72">
-        <v>482653.0</v>
+        <v>451617.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D72">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c s="1" r="F72">
+        <v>37.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -21276,6 +21540,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M72">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N72">
         <v>0.0</v>
       </c>
       <c s="1" r="U72">
@@ -21515,19 +21782,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B73">
-        <v>451617.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F73">
-        <v>37.0</v>
+        <v>1519.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -21790,19 +22057,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B74">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F74">
-        <v>1519.0</v>
+        <v>990.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -22065,19 +22332,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B75">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D75">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F75">
-        <v>990.0</v>
+        <v>993.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -22340,19 +22607,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B76">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F76">
-        <v>993.0</v>
+        <v>9840.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -22618,13 +22885,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D77">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F77">
         <v>9840.0</v>
@@ -22893,13 +23160,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D78">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F78">
         <v>9840.0</v>
@@ -23168,13 +23435,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D79">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F79">
         <v>9840.0</v>
@@ -23443,13 +23710,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D80">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F80">
         <v>9840.0</v>
@@ -23718,13 +23985,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D81">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F81">
         <v>9840.0</v>
@@ -23993,13 +24260,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D82">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F82">
         <v>9840.0</v>
@@ -24268,13 +24535,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D83">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F83">
         <v>9840.0</v>
@@ -24543,13 +24810,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D84">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F84">
         <v>9840.0</v>
@@ -24818,13 +25085,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D85">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F85">
         <v>9840.0</v>
@@ -25093,13 +25360,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D86">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F86">
         <v>9840.0</v>
@@ -25368,13 +25635,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D87">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F87">
         <v>9840.0</v>
@@ -25643,13 +25910,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D88">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F88">
         <v>9840.0</v>
@@ -25918,13 +26185,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D89">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F89">
         <v>9840.0</v>
@@ -26190,19 +26457,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B90">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D90">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F90">
-        <v>9840.0</v>
+        <v>1144.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -26468,13 +26735,13 @@
         <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D91">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F91">
         <v>1144.0</v>
@@ -26498,9 +26765,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M91">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N91">
         <v>0.0</v>
       </c>
       <c s="1" r="U91">
@@ -26740,19 +27004,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B92">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D92">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F92">
-        <v>1144.0</v>
+        <v>945.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -26775,6 +27039,9 @@
       <c s="1" r="M92">
         <v>0.0</v>
       </c>
+      <c s="1" r="N92">
+        <v>0.0</v>
+      </c>
       <c s="1" r="U92">
         <v>0.0</v>
       </c>
@@ -26965,10 +27232,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF92">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CG92">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CH92">
         <v>0.0</v>
@@ -26986,7 +27253,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM92">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CN92">
         <v>0.0</v>
@@ -26995,7 +27262,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP92">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CQ92">
         <v>0.0</v>
@@ -27012,19 +27279,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B93">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F93">
-        <v>945.0</v>
+        <v>137.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -27240,10 +27507,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF93">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CG93">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CH93">
         <v>0.0</v>
@@ -27261,7 +27528,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM93">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN93">
         <v>0.0</v>
@@ -27270,7 +27537,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP93">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CQ93">
         <v>0.0</v>
@@ -27287,19 +27554,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B94">
-        <v>444282.0</v>
+        <v>450599.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F94">
-        <v>137.0</v>
+        <v>121.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -27562,19 +27829,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B95">
-        <v>450599.0</v>
+        <v>476179.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F95">
-        <v>121.0</v>
+        <v>59.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -27595,9 +27862,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M95">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N95">
         <v>0.0</v>
       </c>
       <c s="1" r="U95">
@@ -27837,19 +28101,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B96">
-        <v>476179.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F96">
-        <v>59.0</v>
+        <v>725.0</v>
       </c>
       <c s="1" r="G96">
         <v>0.0</v>
@@ -27870,6 +28134,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M96">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N96">
         <v>0.0</v>
       </c>
       <c s="1" r="U96">
@@ -28109,19 +28376,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B97">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F97">
-        <v>725.0</v>
+        <v>335.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -28384,19 +28651,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B98">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D98">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F98">
-        <v>335.0</v>
+        <v>351.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -28659,19 +28926,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B99">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D99">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F99">
-        <v>351.0</v>
+        <v>1510.0</v>
       </c>
       <c s="1" r="G99">
         <v>0.0</v>
@@ -28845,13 +29112,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BR99">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="BS99">
         <v>0.0</v>
       </c>
       <c s="1" r="BT99">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="BU99">
         <v>0.0</v>
@@ -28934,19 +29201,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B100">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D100">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F100">
-        <v>1510.0</v>
+        <v>392.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -29120,13 +29387,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BR100">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="BS100">
         <v>0.0</v>
       </c>
       <c s="1" r="BT100">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="BU100">
         <v>0.0</v>
@@ -29209,19 +29476,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B101">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D101">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F101">
-        <v>392.0</v>
+        <v>534.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -29484,19 +29751,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B102">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D102">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F102">
-        <v>534.0</v>
+        <v>32961.0</v>
       </c>
       <c s="1" r="G102">
         <v>0.0</v>
@@ -29759,19 +30026,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B103">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D103">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F103">
-        <v>32961.0</v>
+        <v>7520.0</v>
       </c>
       <c s="1" r="G103">
         <v>0.0</v>
@@ -30037,13 +30304,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D104">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F104">
         <v>7520.0</v>
@@ -30312,13 +30579,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D105">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F105">
         <v>7520.0</v>
@@ -30587,13 +30854,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D106">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F106">
         <v>7520.0</v>
@@ -30617,9 +30884,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M106">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N106">
         <v>0.0</v>
       </c>
       <c s="1" r="U106">
@@ -30859,19 +31123,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B107">
-        <v>232195.0</v>
+        <v>455390.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D107">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F107">
-        <v>7520.0</v>
+        <v>265.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -31131,19 +31395,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B108">
-        <v>455390.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F108">
-        <v>265.0</v>
+        <v>195.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
@@ -31164,6 +31428,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M108">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N108">
         <v>0.0</v>
       </c>
       <c s="1" r="U108">
@@ -31403,19 +31670,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B109">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D109">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F109">
-        <v>195.0</v>
+        <v>1080.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -31631,10 +31898,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF109">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CG109">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CH109">
         <v>0.0</v>
@@ -31678,19 +31945,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B110">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F110">
-        <v>1080.0</v>
+        <v>4765.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -31906,10 +32173,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF110">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CG110">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CH110">
         <v>0.0</v>
@@ -31956,13 +32223,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D111">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F111">
         <v>4765.0</v>
@@ -32228,19 +32495,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B112">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D112">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F112">
-        <v>4765.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -32503,19 +32770,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B113">
-        <v>431266.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D113">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F113">
-        <v>84.0</v>
+        <v>794.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -32778,19 +33045,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B114">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D114">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F114">
-        <v>794.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G114">
         <v>0.0</v>
@@ -33053,19 +33320,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B115">
-        <v>445869.0</v>
+        <v>458122.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D115">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F115">
-        <v>84.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
@@ -33086,9 +33353,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M115">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N115">
         <v>0.0</v>
       </c>
       <c s="1" r="U115">
@@ -33328,19 +33592,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B116">
-        <v>458122.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D116">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F116">
-        <v>3.0</v>
+        <v>607.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -33361,6 +33625,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M116">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N116">
         <v>0.0</v>
       </c>
       <c s="1" r="U116">
@@ -33600,19 +33867,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B117">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D117">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F117">
-        <v>607.0</v>
+        <v>901.0</v>
       </c>
       <c s="1" r="G117">
         <v>0.0</v>
@@ -33875,19 +34142,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B118">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D118">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F118">
-        <v>901.0</v>
+        <v>585.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -34150,19 +34417,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B119">
-        <v>437051.0</v>
+        <v>459602.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D119">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F119">
-        <v>585.0</v>
+        <v>207.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -34183,9 +34450,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M119">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N119">
         <v>0.0</v>
       </c>
       <c s="1" r="U119">
@@ -34425,19 +34689,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B120">
-        <v>459602.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D120">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F120">
-        <v>207.0</v>
+        <v>720.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -34458,6 +34722,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M120">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N120">
         <v>0.0</v>
       </c>
       <c s="1" r="U120">
@@ -34697,19 +34964,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B121">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D121">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F121">
-        <v>720.0</v>
+        <v>12846.0</v>
       </c>
       <c s="1" r="G121">
         <v>0.0</v>
@@ -34975,13 +35242,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D122">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F122">
         <v>12846.0</v>
@@ -35250,13 +35517,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D123">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F123">
         <v>12846.0</v>
@@ -35522,19 +35789,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B124">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D124">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F124">
-        <v>12846.0</v>
+        <v>19927.0</v>
       </c>
       <c s="1" r="G124">
         <v>0.0</v>
@@ -35800,13 +36067,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D125">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F125">
         <v>19927.0</v>
@@ -36075,13 +36342,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D126">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F126">
         <v>19927.0</v>
@@ -36350,13 +36617,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D127">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F127">
         <v>19927.0</v>
@@ -36622,19 +36889,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B128">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D128">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F128">
-        <v>19927.0</v>
+        <v>1048.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -36897,19 +37164,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B129">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F129">
-        <v>1048.0</v>
+        <v>10145.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
@@ -37175,13 +37442,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D130">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F130">
         <v>10145.0</v>
@@ -37450,13 +37717,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D131">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F131">
         <v>10145.0</v>
@@ -37725,13 +37992,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D132">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F132">
         <v>10145.0</v>
@@ -37997,19 +38264,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232450.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D133">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F133">
-        <v>10145.0</v>
+        <v>74372.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -38272,19 +38539,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B134">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D134">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F134">
-        <v>74372.0</v>
+        <v>4834.0</v>
       </c>
       <c s="1" r="G134">
         <v>0.0</v>
@@ -38550,13 +38817,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D135">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F135">
         <v>4834.0</v>
@@ -38580,9 +38847,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M135">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N135">
         <v>0.0</v>
       </c>
       <c s="1" r="U135">
@@ -38825,13 +39089,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D136">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F136">
         <v>4834.0</v>
@@ -39094,19 +39358,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B137">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D137">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F137">
-        <v>4834.0</v>
+        <v>7288.0</v>
       </c>
       <c s="1" r="G137">
         <v>0.0</v>
@@ -39127,6 +39391,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M137">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N137">
         <v>0.0</v>
       </c>
       <c s="1" r="U137">
@@ -39369,13 +39636,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D138">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F138">
         <v>7288.0</v>
@@ -39644,13 +39911,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D139">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F139">
         <v>7288.0</v>
@@ -39674,9 +39941,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M139">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N139">
         <v>0.0</v>
       </c>
       <c s="1" r="U139">
@@ -39916,19 +40180,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B140">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D140">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F140">
-        <v>7288.0</v>
+        <v>2756.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -39951,6 +40215,9 @@
       <c s="1" r="M140">
         <v>0.0</v>
       </c>
+      <c s="1" r="N140">
+        <v>0.0</v>
+      </c>
       <c s="1" r="U140">
         <v>0.0</v>
       </c>
@@ -40162,7 +40429,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM140">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CN140">
         <v>0.0</v>
@@ -40171,7 +40438,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP140">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CQ140">
         <v>0.0</v>
@@ -40188,19 +40455,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B141">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F141">
-        <v>2756.0</v>
+        <v>167.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -40437,7 +40704,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM141">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN141">
         <v>0.0</v>
@@ -40446,7 +40713,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP141">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CQ141">
         <v>0.0</v>
@@ -40463,19 +40730,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B142">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D142">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F142">
-        <v>167.0</v>
+        <v>1791.0</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
@@ -40738,19 +41005,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B143">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D143">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F143">
-        <v>1791.0</v>
+        <v>3702.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -41013,19 +41280,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B144">
-        <v>232706.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D144">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F144">
-        <v>3702.0</v>
+        <v>1545.0</v>
       </c>
       <c s="1" r="G144">
         <v>0.0</v>
@@ -41291,13 +41558,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D145">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F145">
         <v>1545.0</v>
@@ -41566,13 +41833,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D146">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F146">
         <v>1545.0</v>
@@ -41838,19 +42105,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B147">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D147">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F147">
-        <v>1545.0</v>
+        <v>445.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -42113,19 +42380,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B148">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D148">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F148">
-        <v>445.0</v>
+        <v>3089.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -42388,19 +42655,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B149">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D149">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F149">
-        <v>3089.0</v>
+        <v>5083.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
@@ -42663,19 +42930,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B150">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D150">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F150">
-        <v>5083.0</v>
+        <v>7100.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
@@ -42938,19 +43205,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B151">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D151">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F151">
-        <v>7100.0</v>
+        <v>51864.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -43166,10 +43433,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF151">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CG151">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CH151">
         <v>0.0</v>
@@ -43216,13 +43483,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D152">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F152">
         <v>51864.0</v>
@@ -43444,14 +43711,14 @@
         <v>1.0</v>
       </c>
       <c s="1" r="CG152">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CH152">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CI152">
         <v>1.0</v>
       </c>
-      <c s="1" r="CH152">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CI152">
-        <v>0.0</v>
-      </c>
       <c s="1" r="CJ152">
         <v>0.0</v>
       </c>
@@ -43462,7 +43729,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM152">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CN152">
         <v>0.0</v>
@@ -43471,7 +43738,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP152">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CQ152">
         <v>0.0</v>
@@ -43491,13 +43758,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D153">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F153">
         <v>51864.0</v>
@@ -43719,13 +43986,13 @@
         <v>1.0</v>
       </c>
       <c s="1" r="CG153">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CH153">
         <v>0.0</v>
       </c>
       <c s="1" r="CI153">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CJ153">
         <v>0.0</v>
@@ -43737,7 +44004,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM153">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN153">
         <v>0.0</v>
@@ -43746,7 +44013,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP153">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CQ153">
         <v>0.0</v>
@@ -43766,13 +44033,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D154">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F154">
         <v>51864.0</v>
@@ -43991,10 +44258,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF154">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CG154">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CH154">
         <v>0.0</v>
@@ -44041,13 +44308,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D155">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F155">
         <v>51864.0</v>
@@ -44316,13 +44583,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D156">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F156">
         <v>51864.0</v>
@@ -44591,13 +44858,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D157">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F157">
         <v>51864.0</v>
@@ -44621,9 +44888,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M157">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N157">
         <v>0.0</v>
       </c>
       <c s="1" r="U157">
@@ -44866,13 +45130,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D158">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F158">
         <v>51864.0</v>
@@ -45138,13 +45402,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D159">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F159">
         <v>51864.0</v>
@@ -45410,13 +45674,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D160">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F160">
         <v>51864.0</v>
@@ -45682,13 +45946,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D161">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F161">
         <v>51864.0</v>
@@ -45954,13 +46218,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D162">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F162">
         <v>51864.0</v>
@@ -46226,13 +46490,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D163">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F163">
         <v>51864.0</v>
@@ -46498,13 +46762,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D164">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F164">
         <v>51864.0</v>
@@ -46767,19 +47031,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B165">
-        <v>232946.0</v>
+        <v>461412.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D165">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F165">
-        <v>51864.0</v>
+        <v>78.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -47039,19 +47303,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B166">
-        <v>461412.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F166">
-        <v>78.0</v>
+        <v>24670.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -47072,6 +47336,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M166">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N166">
         <v>0.0</v>
       </c>
       <c s="1" r="U166">
@@ -47311,19 +47578,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B167">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F167">
-        <v>24670.0</v>
+        <v>3079.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -47586,19 +47853,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F168">
-        <v>3079.0</v>
+        <v>1493.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -47864,13 +48131,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D169">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F169">
         <v>1493.0</v>
@@ -48136,19 +48403,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B170">
-        <v>233037.0</v>
+        <v>449995.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D170">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F170">
-        <v>1493.0</v>
+        <v>214.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -48169,9 +48436,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M170">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N170">
         <v>0.0</v>
       </c>
       <c s="1" r="U170">
@@ -48411,19 +48675,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B171">
-        <v>449995.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F171">
-        <v>214.0</v>
+        <v>5693.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -48444,6 +48708,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M171">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N171">
         <v>0.0</v>
       </c>
       <c s="1" r="U171">
@@ -48683,19 +48950,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B172">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F172">
-        <v>5693.0</v>
+        <v>9573.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -48911,7 +49178,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF172">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CG172">
         <v>0.0</v>
@@ -48920,7 +49187,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CI172">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CJ172">
         <v>0.0</v>
@@ -48932,7 +49199,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM172">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CN172">
         <v>0.0</v>
@@ -48941,7 +49208,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP172">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CQ172">
         <v>0.0</v>
@@ -48958,19 +49225,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B173">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F173">
-        <v>9573.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -49186,7 +49453,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF173">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CG173">
         <v>0.0</v>
@@ -49195,7 +49462,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CI173">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CJ173">
         <v>0.0</v>
@@ -49207,7 +49474,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM173">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN173">
         <v>0.0</v>
@@ -49216,7 +49483,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP173">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CQ173">
         <v>0.0</v>
@@ -49233,19 +49500,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F174">
-        <v>645.0</v>
+        <v>1312.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -49508,19 +49775,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B175">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F175">
-        <v>1312.0</v>
+        <v>3711.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -49786,13 +50053,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D176">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F176">
         <v>3711.0</v>
@@ -50061,13 +50328,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D177">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F177">
         <v>3711.0</v>
@@ -50091,9 +50358,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M177">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N177">
         <v>0.0</v>
       </c>
       <c s="1" r="U177">
@@ -50333,19 +50597,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233310.0</v>
+        <v>467605.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D178">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F178">
-        <v>3711.0</v>
+        <v>91.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -50605,19 +50869,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B179">
-        <v>467605.0</v>
+        <v>476133.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F179">
-        <v>91.0</v>
+        <v>118.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
@@ -50877,19 +51141,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B180">
-        <v>476133.0</v>
+        <v>467650.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F180">
-        <v>118.0</v>
+        <v>81.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
@@ -51149,19 +51413,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B181">
-        <v>467650.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D181">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F181">
-        <v>81.0</v>
+        <v>5635.0</v>
       </c>
       <c s="1" r="G181">
         <v>0.0</v>
@@ -51182,6 +51446,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M181">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N181">
         <v>0.0</v>
       </c>
       <c s="1" r="U181">
@@ -51421,19 +51688,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B182">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D182">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F182">
-        <v>5635.0</v>
+        <v>1532.0</v>
       </c>
       <c s="1" r="G182">
         <v>0.0</v>
@@ -51696,19 +51963,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B183">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D183">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F183">
-        <v>1532.0</v>
+        <v>196.0</v>
       </c>
       <c s="1" r="G183">
         <v>0.0</v>
@@ -51971,19 +52238,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B184">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c s="1" r="D184">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c s="1" r="F184">
-        <v>196.0</v>
+        <v>326.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -52246,19 +52513,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B185">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c s="1" r="D185">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c s="1" r="F185">
-        <v>326.0</v>
+        <v>2060.0</v>
       </c>
       <c s="1" r="G185">
         <v>0.0</v>
@@ -52521,19 +52788,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B186">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c s="1" r="D186">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c s="1" r="F186">
-        <v>2060.0</v>
+        <v>272.0</v>
       </c>
       <c s="1" r="G186">
         <v>0.0</v>
@@ -52796,19 +53063,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B187">
-        <v>441876.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c s="1" r="D187">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c s="1" r="F187">
-        <v>272.0</v>
+        <v>733.0</v>
       </c>
       <c s="1" r="G187">
         <v>0.0</v>
@@ -53071,19 +53338,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B188">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c s="1" r="D188">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c s="1" r="F188">
-        <v>733.0</v>
+        <v>365.0</v>
       </c>
       <c s="1" r="G188">
         <v>0.0</v>
@@ -53346,19 +53613,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B189">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c s="1" r="F189">
-        <v>365.0</v>
+        <v>4176.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
@@ -53621,19 +53888,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B190">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c s="1" r="F190">
-        <v>4176.0</v>
+        <v>214.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
@@ -53896,19 +54163,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B191">
-        <v>261931.0</v>
+        <v>459259.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c s="1" r="D191">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c s="1" r="F191">
-        <v>214.0</v>
+        <v>633.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
@@ -53929,9 +54196,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M191">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N191">
         <v>0.0</v>
       </c>
       <c s="1" r="U191">
@@ -54171,19 +54435,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B192">
-        <v>459259.0</v>
+        <v>459268.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c s="1" r="D192">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c s="1" r="F192">
-        <v>633.0</v>
+        <v>635.0</v>
       </c>
       <c s="1" r="G192">
         <v>0.0</v>
@@ -54443,19 +54707,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B193">
-        <v>459268.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c s="1" r="D193">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c s="1" r="F193">
-        <v>635.0</v>
+        <v>730.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -54476,6 +54740,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M193">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N193">
         <v>0.0</v>
       </c>
       <c s="1" r="U193">
@@ -54715,19 +54982,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B194">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c s="1" r="F194">
-        <v>730.0</v>
+        <v>127.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
@@ -54990,19 +55257,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B195">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c s="1" r="F195">
-        <v>127.0</v>
+        <v>6042.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
@@ -55265,19 +55532,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B196">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c s="1" r="D196">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c s="1" r="F196">
-        <v>6042.0</v>
+        <v>2766.0</v>
       </c>
       <c s="1" r="G196">
         <v>0.0</v>
@@ -55540,19 +55807,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B197">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c s="1" r="D197">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c s="1" r="F197">
-        <v>2766.0</v>
+        <v>69.0</v>
       </c>
       <c s="1" r="G197">
         <v>0.0</v>
@@ -55815,19 +56082,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B198">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c s="1" r="D198">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c s="1" r="F198">
-        <v>69.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -56090,19 +56357,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B199">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c s="1" r="F199">
-        <v>35.0</v>
+        <v>2733.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -56365,19 +56632,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B200">
-        <v>438498.0</v>
+        <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c s="1" r="D200">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c s="1" r="F200">
-        <v>2733.0</v>
+        <v>8991.0</v>
       </c>
       <c s="1" r="G200">
         <v>0.0</v>
@@ -56398,9 +56665,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M200">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N200">
         <v>0.0</v>
       </c>
       <c s="1" r="U200">
@@ -56643,13 +56907,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c s="1" r="D201">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c s="1" r="F201">
         <v>8991.0</v>
@@ -56915,13 +57179,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c s="1" r="D202">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c s="1" r="F202">
         <v>8991.0</v>
@@ -57187,13 +57451,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c s="1" r="D203">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c s="1" r="F203">
         <v>8991.0</v>
@@ -57459,13 +57723,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c s="1" r="D204">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c s="1" r="F204">
         <v>8991.0</v>
@@ -57731,13 +57995,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c s="1" r="D205">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c s="1" r="F205">
         <v>8991.0</v>
@@ -58003,13 +58267,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c s="1" r="D206">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c s="1" r="F206">
         <v>8991.0</v>
@@ -58275,13 +58539,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c s="1" r="D207">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c s="1" r="F207">
         <v>8991.0</v>
@@ -58547,13 +58811,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c s="1" r="D208">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c s="1" r="F208">
         <v>8991.0</v>
@@ -58819,13 +59083,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c s="1" r="D209">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c s="1" r="F209">
         <v>8991.0</v>
@@ -59091,13 +59355,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c s="1" r="D210">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c s="1" r="F210">
         <v>8991.0</v>
@@ -59360,19 +59624,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B211">
-        <v>233684.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c s="1" r="D211">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c s="1" r="F211">
-        <v>8991.0</v>
+        <v>43.0</v>
       </c>
       <c s="1" r="G211">
         <v>0.0</v>
@@ -59393,6 +59657,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M211">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N211">
         <v>0.0</v>
       </c>
       <c s="1" r="U211">
@@ -59632,19 +59899,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B212">
-        <v>231721.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c s="1" r="D212">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c s="1" r="F212">
-        <v>43.0</v>
+        <v>739.0</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -59907,19 +60174,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B213">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c s="1" r="F213">
-        <v>739.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -60182,19 +60449,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B214">
-        <v>233286.0</v>
+        <v>458496.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c s="1" r="F214">
-        <v>62.0</v>
+        <v>550.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
@@ -60215,9 +60482,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M214">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N214">
         <v>0.0</v>
       </c>
       <c s="1" r="U214">
@@ -60457,19 +60721,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B215">
-        <v>458496.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c s="1" r="F215">
-        <v>550.0</v>
+        <v>1557.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -60490,6 +60754,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M215">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N215">
         <v>0.0</v>
       </c>
       <c s="1" r="U215">
@@ -60729,19 +60996,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B216">
-        <v>440341.0</v>
+        <v>456010.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c s="1" r="F216">
-        <v>1557.0</v>
+        <v>234.0</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -60762,9 +61029,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M216">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N216">
         <v>0.0</v>
       </c>
       <c s="1" r="U216">
@@ -61004,19 +61268,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B217">
-        <v>456010.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c s="1" r="F217">
-        <v>234.0</v>
+        <v>2420.0</v>
       </c>
       <c s="1" r="G217">
         <v>0.0</v>
@@ -61037,6 +61301,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M217">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N217">
         <v>0.0</v>
       </c>
       <c s="1" r="U217">
@@ -61276,19 +61543,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B218">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c s="1" r="F218">
-        <v>2420.0</v>
+        <v>10942.0</v>
       </c>
       <c s="1" r="G218">
         <v>0.0</v>
@@ -61551,19 +61818,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B219">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c s="1" r="F219">
-        <v>10942.0</v>
+        <v>30134.0</v>
       </c>
       <c s="1" r="G219">
         <v>0.0</v>
@@ -61829,13 +62096,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c s="1" r="D220">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c s="1" r="F220">
         <v>30134.0</v>
@@ -62075,7 +62342,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM220">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CN220">
         <v>0.0</v>
@@ -62084,7 +62351,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP220">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CQ220">
         <v>0.0</v>
@@ -62104,13 +62371,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c s="1" r="D221">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c s="1" r="F221">
         <v>30134.0</v>
@@ -62350,7 +62617,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM221">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN221">
         <v>0.0</v>
@@ -62359,7 +62626,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP221">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CQ221">
         <v>0.0</v>
@@ -62379,13 +62646,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c s="1" r="D222">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c s="1" r="F222">
         <v>30134.0</v>
@@ -62625,13 +62892,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM222">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CN222">
         <v>0.0</v>
       </c>
       <c s="1" r="CO222">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CP222">
         <v>0.0</v>
@@ -62654,13 +62921,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c s="1" r="D223">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c s="1" r="F223">
         <v>30134.0</v>
@@ -62900,13 +63167,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM223">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN223">
         <v>0.0</v>
       </c>
       <c s="1" r="CO223">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CP223">
         <v>0.0</v>
@@ -62929,13 +63196,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c s="1" r="D224">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c s="1" r="F224">
         <v>30134.0</v>
@@ -62959,9 +63226,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M224">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N224">
         <v>0.0</v>
       </c>
       <c s="1" r="U224">
@@ -63204,13 +63468,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C225">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c s="1" r="D225">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E225">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c s="1" r="F225">
         <v>30134.0</v>
@@ -63473,19 +63737,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B226">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C226">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c s="1" r="D226">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E226">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c s="1" r="F226">
-        <v>30134.0</v>
+        <v>241.0</v>
       </c>
       <c s="1" r="G226">
         <v>0.0</v>
@@ -63506,6 +63770,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M226">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N226">
         <v>0.0</v>
       </c>
       <c s="1" r="U226">
@@ -63745,19 +64012,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B227">
-        <v>232919.0</v>
+        <v>476568.0</v>
       </c>
       <c t="s" s="1" r="C227">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c s="1" r="D227">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E227">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c s="1" r="F227">
-        <v>241.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="G227">
         <v>0.0</v>
@@ -63778,9 +64045,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M227">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N227">
         <v>0.0</v>
       </c>
       <c s="1" r="U227">
@@ -64020,19 +64284,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B228">
-        <v>476568.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C228">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c s="1" r="D228">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E228">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c s="1" r="F228">
-        <v>18.0</v>
+        <v>211.0</v>
       </c>
       <c s="1" r="G228">
         <v>0.0</v>
@@ -64053,6 +64317,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M228">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N228">
         <v>0.0</v>
       </c>
       <c s="1" r="U228">
@@ -64295,13 +64562,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C229">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c s="1" r="D229">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E229">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c s="1" r="F229">
         <v>211.0</v>
@@ -64567,19 +64834,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B230">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C230">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c s="1" r="D230">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E230">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c s="1" r="F230">
-        <v>211.0</v>
+        <v>5093.0</v>
       </c>
       <c s="1" r="G230">
         <v>0.0</v>
@@ -64845,13 +65112,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C231">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c s="1" r="D231">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E231">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c s="1" r="F231">
         <v>5093.0</v>
@@ -64875,9 +65142,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M231">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N231">
         <v>0.0</v>
       </c>
       <c s="1" r="U231">
@@ -65120,13 +65384,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C232">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c s="1" r="D232">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E232">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c s="1" r="F232">
         <v>5093.0</v>
@@ -65389,19 +65653,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B233">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C233">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c s="1" r="D233">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E233">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c s="1" r="F233">
-        <v>5093.0</v>
+        <v>989.0</v>
       </c>
       <c s="1" r="G233">
         <v>0.0</v>
@@ -65661,19 +65925,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B234">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C234">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c s="1" r="D234">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E234">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c s="1" r="F234">
-        <v>989.0</v>
+        <v>748.0</v>
       </c>
       <c s="1" r="G234">
         <v>0.0</v>
@@ -65694,6 +65958,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M234">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N234">
         <v>0.0</v>
       </c>
       <c s="1" r="U234">
@@ -65933,19 +66200,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B235">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C235">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c s="1" r="D235">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E235">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c s="1" r="F235">
-        <v>748.0</v>
+        <v>4361.0</v>
       </c>
       <c s="1" r="G235">
         <v>0.0</v>
@@ -66161,10 +66428,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF235">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CG235">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CH235">
         <v>0.0</v>
@@ -66208,19 +66475,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B236">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C236">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c s="1" r="D236">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E236">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c s="1" r="F236">
-        <v>4361.0</v>
+        <v>19.0</v>
       </c>
       <c s="1" r="G236">
         <v>0.0</v>
@@ -66436,10 +66703,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF236">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CG236">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CH236">
         <v>0.0</v>
@@ -66483,19 +66750,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B237">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C237">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c s="1" r="D237">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E237">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c s="1" r="F237">
-        <v>19.0</v>
+        <v>23907.0</v>
       </c>
       <c s="1" r="G237">
         <v>0.0</v>
@@ -66669,7 +66936,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BR237">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="BS237">
         <v>0.0</v>
@@ -66678,7 +66945,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BU237">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="BV237">
         <v>0.0</v>
@@ -66761,13 +67028,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C238">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c s="1" r="D238">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E238">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c s="1" r="F238">
         <v>23907.0</v>
@@ -66944,7 +67211,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BR238">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="BS238">
         <v>0.0</v>
@@ -66953,7 +67220,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BU238">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="BV238">
         <v>0.0</v>
@@ -67036,13 +67303,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C239">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c s="1" r="D239">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E239">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c s="1" r="F239">
         <v>23907.0</v>
@@ -67311,13 +67578,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C240">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c s="1" r="D240">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E240">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c s="1" r="F240">
         <v>23907.0</v>
@@ -67586,13 +67853,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C241">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c s="1" r="D241">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E241">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c s="1" r="F241">
         <v>23907.0</v>
@@ -67861,13 +68128,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C242">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c s="1" r="D242">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E242">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c s="1" r="F242">
         <v>23907.0</v>
@@ -68133,19 +68400,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B243">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C243">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c s="1" r="D243">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E243">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c s="1" r="F243">
-        <v>23907.0</v>
+        <v>42.0</v>
       </c>
       <c s="1" r="G243">
         <v>0.0</v>
@@ -68408,19 +68675,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B244">
-        <v>377485.0</v>
+        <v>460923.0</v>
       </c>
       <c t="s" s="1" r="C244">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c s="1" r="D244">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E244">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c s="1" r="F244">
-        <v>42.0</v>
+        <v>413.0</v>
       </c>
       <c s="1" r="G244">
         <v>0.0</v>
@@ -68441,9 +68708,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M244">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N244">
         <v>0.0</v>
       </c>
       <c s="1" r="U244">
@@ -68683,19 +68947,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B245">
-        <v>460923.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C245">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c s="1" r="D245">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E245">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c s="1" r="F245">
-        <v>413.0</v>
+        <v>31445.0</v>
       </c>
       <c s="1" r="G245">
         <v>0.0</v>
@@ -68716,6 +68980,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M245">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N245">
         <v>0.0</v>
       </c>
       <c s="1" r="U245">
@@ -68958,13 +69225,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C246">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c s="1" r="D246">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E246">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c s="1" r="F246">
         <v>31445.0</v>
@@ -69233,13 +69500,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C247">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c s="1" r="D247">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E247">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c s="1" r="F247">
         <v>31445.0</v>
@@ -69263,9 +69530,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M247">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N247">
         <v>0.0</v>
       </c>
       <c s="1" r="U247">
@@ -69508,13 +69772,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C248">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c s="1" r="D248">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E248">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c s="1" r="F248">
         <v>31445.0</v>
@@ -69777,19 +70041,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B249">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C249">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c s="1" r="D249">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E249">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c s="1" r="F249">
-        <v>31445.0</v>
+        <v>2570.0</v>
       </c>
       <c s="1" r="G249">
         <v>0.0</v>
@@ -69810,6 +70074,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M249">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N249">
         <v>0.0</v>
       </c>
       <c s="1" r="U249">
@@ -70049,19 +70316,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B250">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C250">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c s="1" r="D250">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E250">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c s="1" r="F250">
-        <v>2570.0</v>
+        <v>496.0</v>
       </c>
       <c s="1" r="G250">
         <v>0.0</v>
@@ -70082,9 +70349,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M250">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N250">
         <v>0.0</v>
       </c>
       <c s="1" r="U250">
@@ -70324,19 +70588,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B251">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C251">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c s="1" r="D251">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E251">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c s="1" r="F251">
-        <v>496.0</v>
+        <v>1664.0</v>
       </c>
       <c s="1" r="G251">
         <v>0.0</v>
@@ -70357,6 +70621,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M251">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N251">
         <v>0.0</v>
       </c>
       <c s="1" r="U251">
@@ -70596,19 +70863,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B252">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C252">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c s="1" r="D252">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E252">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c s="1" r="F252">
-        <v>1664.0</v>
+        <v>31087.0</v>
       </c>
       <c s="1" r="G252">
         <v>0.0</v>
@@ -70874,13 +71141,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C253">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c s="1" r="D253">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E253">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c s="1" r="F253">
         <v>31087.0</v>
@@ -71149,13 +71416,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C254">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c s="1" r="D254">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E254">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c s="1" r="F254">
         <v>31087.0</v>
@@ -71424,13 +71691,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C255">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c s="1" r="D255">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E255">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c s="1" r="F255">
         <v>31087.0</v>
@@ -71699,13 +71966,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C256">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c s="1" r="D256">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E256">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c s="1" r="F256">
         <v>31087.0</v>
@@ -71974,13 +72241,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C257">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c s="1" r="D257">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E257">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c s="1" r="F257">
         <v>31087.0</v>
@@ -72249,13 +72516,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C258">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c s="1" r="D258">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E258">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c s="1" r="F258">
         <v>31087.0</v>
@@ -72524,13 +72791,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C259">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c s="1" r="D259">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E259">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c s="1" r="F259">
         <v>31087.0</v>
@@ -72799,13 +73066,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C260">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c s="1" r="D260">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E260">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c s="1" r="F260">
         <v>31087.0</v>
@@ -72829,9 +73096,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M260">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N260">
         <v>0.0</v>
       </c>
       <c s="1" r="U260">
@@ -73074,13 +73338,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C261">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c s="1" r="D261">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E261">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c s="1" r="F261">
         <v>31087.0</v>
@@ -73346,13 +73610,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C262">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c s="1" r="D262">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E262">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c s="1" r="F262">
         <v>31087.0</v>
@@ -73618,13 +73882,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C263">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c s="1" r="D263">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E263">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c s="1" r="F263">
         <v>31087.0</v>
@@ -73890,13 +74154,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C264">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c s="1" r="D264">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E264">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c s="1" r="F264">
         <v>31087.0</v>
@@ -74159,19 +74423,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B265">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C265">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c s="1" r="D265">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E265">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c s="1" r="F265">
-        <v>31087.0</v>
+        <v>124.0</v>
       </c>
       <c s="1" r="G265">
         <v>0.0</v>
@@ -74192,6 +74456,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M265">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N265">
         <v>0.0</v>
       </c>
       <c s="1" r="U265">
@@ -74431,19 +74698,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B266">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C266">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c s="1" r="D266">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E266">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c s="1" r="F266">
-        <v>124.0</v>
+        <v>33.0</v>
       </c>
       <c s="1" r="G266">
         <v>0.0</v>
@@ -74706,19 +74973,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B267">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C267">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c s="1" r="D267">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E267">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c s="1" r="F267">
-        <v>33.0</v>
+        <v>6208.0</v>
       </c>
       <c s="1" r="G267">
         <v>0.0</v>
@@ -74981,19 +75248,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B268">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C268">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c s="1" r="D268">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E268">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c s="1" r="F268">
-        <v>6208.0</v>
+        <v>1751.0</v>
       </c>
       <c s="1" r="G268">
         <v>0.0</v>
@@ -75256,19 +75523,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B269">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C269">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c s="1" r="D269">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E269">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c s="1" r="F269">
-        <v>1751.0</v>
+        <v>540.0</v>
       </c>
       <c s="1" r="G269">
         <v>0.0</v>
@@ -75531,19 +75798,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B270">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C270">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c s="1" r="D270">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E270">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c s="1" r="F270">
-        <v>540.0</v>
+        <v>1431.0</v>
       </c>
       <c s="1" r="G270">
         <v>0.0</v>
@@ -75806,19 +76073,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B271">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C271">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c s="1" r="D271">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E271">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c s="1" r="F271">
-        <v>1431.0</v>
+        <v>8440.0</v>
       </c>
       <c s="1" r="G271">
         <v>0.0</v>
@@ -76081,19 +76348,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B272">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C272">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c s="1" r="D272">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E272">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c s="1" r="F272">
-        <v>8440.0</v>
+        <v>136.0</v>
       </c>
       <c s="1" r="G272">
         <v>0.0</v>
@@ -76356,19 +76623,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B273">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C273">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c s="1" r="D273">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E273">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c s="1" r="F273">
-        <v>136.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="G273">
         <v>0.0</v>
@@ -76631,19 +76898,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B274">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C274">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c s="1" r="D274">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E274">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c s="1" r="F274">
-        <v>35.0</v>
+        <v>2302.0</v>
       </c>
       <c s="1" r="G274">
         <v>0.0</v>
@@ -76906,19 +77173,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B275">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C275">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c s="1" r="D275">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E275">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c s="1" r="F275">
-        <v>2302.0</v>
+        <v>73.0</v>
       </c>
       <c s="1" r="G275">
         <v>0.0</v>
@@ -77181,19 +77448,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B276">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C276">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c s="1" r="D276">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E276">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c s="1" r="F276">
-        <v>73.0</v>
+        <v>431.0</v>
       </c>
       <c s="1" r="G276">
         <v>0.0</v>
@@ -77456,19 +77723,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B277">
-        <v>448628.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C277">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c s="1" r="D277">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E277">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c s="1" r="F277">
-        <v>431.0</v>
+        <v>476.0</v>
       </c>
       <c s="1" r="G277">
         <v>0.0</v>
@@ -77731,19 +77998,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B278">
-        <v>447069.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C278">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c s="1" r="D278">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E278">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c s="1" r="F278">
-        <v>476.0</v>
+        <v>151.0</v>
       </c>
       <c s="1" r="G278">
         <v>0.0</v>
@@ -78006,19 +78273,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B279">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C279">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c s="1" r="D279">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E279">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c s="1" r="F279">
-        <v>151.0</v>
+        <v>3717.0</v>
       </c>
       <c s="1" r="G279">
         <v>0.0</v>
@@ -78273,281 +78540,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CS279">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c s="1" r="A280">
-        <v>2012.0</v>
-      </c>
-      <c s="1" r="B280">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C280">
-        <v>652</v>
-      </c>
-      <c s="1" r="D280">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E280">
-        <v>653</v>
-      </c>
-      <c s="1" r="F280">
-        <v>3717.0</v>
-      </c>
-      <c s="1" r="G280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="U280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="V280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="W280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="X280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Y280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Z280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AA280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AB280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AC280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AD280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AE280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AF280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AG280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AH280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AI280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AJ280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AK280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AL280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AM280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AN280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AO280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AP280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AQ280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AR280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AS280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AT280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AU280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AV280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AW280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AX280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AY280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AZ280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BA280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BB280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BC280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BD280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BE280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BF280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BG280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BH280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BI280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BJ280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BK280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BL280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BM280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BN280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BO280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BP280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BQ280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BR280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BS280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BT280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BU280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BV280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BW280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BX280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BY280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BZ280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CA280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CB280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CC280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CD280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CE280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CF280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CG280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CH280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CI280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CJ280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CK280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CL280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CM280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CN280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CO280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CP280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CQ280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CR280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CS280">
         <v>0.0</v>
       </c>
     </row>
